--- a/mortality_comparison.xlsx
+++ b/mortality_comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uflorida-my.sharepoint.com/personal/jjtanner_ufl_edu/Documents/R/Mortality/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{C78AECCF-4146-C341-8E0B-503BC51F9C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4BFBD28-EA86-5244-8C5D-FFB202813E65}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{C78AECCF-4146-C341-8E0B-503BC51F9C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{702E7CEB-69A6-364F-ACAA-FD56B0EC177F}"/>
   <bookViews>
-    <workbookView xWindow="17260" yWindow="9420" windowWidth="26840" windowHeight="15940" xr2:uid="{C1D457DF-6B43-4341-86B0-A7D2BBA4F662}"/>
+    <workbookView xWindow="22860" yWindow="14260" windowWidth="26840" windowHeight="15940" xr2:uid="{C1D457DF-6B43-4341-86B0-A7D2BBA4F662}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>Age</t>
   </si>
@@ -351,6 +351,18 @@
   </si>
   <si>
     <t>qx_2019</t>
+  </si>
+  <si>
+    <t>male_qx_2005</t>
+  </si>
+  <si>
+    <t>female_qx_2005</t>
+  </si>
+  <si>
+    <t>male_qx_2022</t>
+  </si>
+  <si>
+    <t>female_qx_2022</t>
   </si>
 </sst>
 </file>
@@ -779,15 +791,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0CA9DB0-F695-154D-A09A-6A54DA245401}">
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -800,8 +818,20 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -814,8 +844,20 @@
       <c r="D2" s="4">
         <v>5.6045660749077797E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="3">
+        <v>7.5669999999999999E-3</v>
+      </c>
+      <c r="F2" s="3">
+        <v>6.1563E-3</v>
+      </c>
+      <c r="G2" s="8">
+        <v>6.0670799575746059E-3</v>
+      </c>
+      <c r="H2" s="8">
+        <v>5.1210653036832809E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -828,8 +870,20 @@
       <c r="D3" s="4">
         <v>4.4384211651049554E-4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" s="3">
+        <v>5.1500000000000005E-4</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4.0949999999999998E-4</v>
+      </c>
+      <c r="G3" s="8">
+        <v>4.8902747221291065E-4</v>
+      </c>
+      <c r="H3" s="8">
+        <v>3.9659353205934167E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -842,8 +896,20 @@
       <c r="D4" s="4">
         <v>2.8387119527906179E-4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" s="3">
+        <v>3.5599999999999998E-4</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2.5549999999999998E-4</v>
+      </c>
+      <c r="G4" s="8">
+        <v>3.2273799297399819E-4</v>
+      </c>
+      <c r="H4" s="8">
+        <v>2.4324440164491534E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -856,8 +922,20 @@
       <c r="D5" s="4">
         <v>2.2199927479960024E-4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" s="3">
+        <v>2.5579999999999998E-4</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1.819E-4</v>
+      </c>
+      <c r="G5" s="8">
+        <v>2.3813413281459361E-4</v>
+      </c>
+      <c r="H5" s="8">
+        <v>2.0513724302873015E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -870,8 +948,20 @@
       <c r="D6" s="4">
         <v>1.6768417845014483E-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" s="3">
+        <v>2.0829999999999999E-4</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1.585E-4</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1.8794351490214467E-4</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1.4651192759629339E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -884,8 +974,20 @@
       <c r="D7" s="4">
         <v>1.5467102639377117E-4</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" s="3">
+        <v>1.894E-4</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1.537E-4</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1.7018332437146455E-4</v>
+      </c>
+      <c r="H7" s="8">
+        <v>1.3845684588886797E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -898,8 +1000,20 @@
       <c r="D8" s="4">
         <v>1.3934898015577346E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" s="3">
+        <v>1.751E-4</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1.439E-4</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1.5510196681134403E-4</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1.2287680874578655E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -912,8 +1026,20 @@
       <c r="D9" s="4">
         <v>1.2754186172969639E-4</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" s="3">
+        <v>1.6110000000000001E-4</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1.3530000000000001E-4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1.4163313608150929E-4</v>
+      </c>
+      <c r="H9" s="8">
+        <v>1.1279854516033083E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -926,8 +1052,20 @@
       <c r="D10" s="4">
         <v>1.1590241047088057E-4</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" s="3">
+        <v>1.3999999999999999E-4</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1.25E-4</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1.245357416337356E-4</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1.0686242603696883E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -940,8 +1078,20 @@
       <c r="D11" s="4">
         <v>1.0530801228014752E-4</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" s="3">
+        <v>1.143E-4</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1.137E-4</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1.0569098958512768E-4</v>
+      </c>
+      <c r="H11" s="8">
+        <v>1.049065322149545E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -954,8 +1104,20 @@
       <c r="D12" s="4">
         <v>1.0092421143781394E-4</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" s="3">
+        <v>9.59E-5</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1.052E-4</v>
+      </c>
+      <c r="G12" s="8">
+        <v>9.4206407084129751E-5</v>
+      </c>
+      <c r="H12" s="8">
+        <v>1.07971703982912E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -968,8 +1130,20 @@
       <c r="D13" s="4">
         <v>1.1151374928886071E-4</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" s="3">
+        <v>1.038E-4</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1.064E-4</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1.0523748642299324E-4</v>
+      </c>
+      <c r="H13" s="8">
+        <v>1.1810389696620405E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -982,8 +1156,20 @@
       <c r="D14" s="4">
         <v>1.4720711624249816E-4</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" s="3">
+        <v>1.595E-4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1.247E-4</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1.5621924831066281E-4</v>
+      </c>
+      <c r="H14" s="8">
+        <v>1.3773773389402777E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
@@ -996,8 +1182,20 @@
       <c r="D15" s="4">
         <v>2.1340591774787754E-4</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" s="3">
+        <v>2.7480000000000001E-4</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1.641E-4</v>
+      </c>
+      <c r="G15" s="8">
+        <v>2.5657814694568515E-4</v>
+      </c>
+      <c r="H15" s="8">
+        <v>1.6802789468783885E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -1010,8 +1208,20 @@
       <c r="D16" s="4">
         <v>3.0228320974856615E-4</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" s="3">
+        <v>4.3459999999999999E-4</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2.1880000000000001E-4</v>
+      </c>
+      <c r="G16" s="8">
+        <v>3.9337205816991627E-4</v>
+      </c>
+      <c r="H16" s="8">
+        <v>2.0653418323490769E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
@@ -1024,8 +1234,20 @@
       <c r="D17" s="4">
         <v>4.0206755511462688E-4</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" s="3">
+        <v>6.0930000000000001E-4</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2.812E-4</v>
+      </c>
+      <c r="G17" s="8">
+        <v>5.4618512513116002E-4</v>
+      </c>
+      <c r="H17" s="8">
+        <v>2.5056133745238185E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -1038,8 +1260,20 @@
       <c r="D18" s="4">
         <v>5.013616755604744E-4</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" s="3">
+        <v>7.7539999999999998E-4</v>
+      </c>
+      <c r="F18" s="3">
+        <v>3.3960000000000001E-4</v>
+      </c>
+      <c r="G18" s="8">
+        <v>6.9658370921388268E-4</v>
+      </c>
+      <c r="H18" s="8">
+        <v>2.9612312209792435E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -1052,8 +1286,20 @@
       <c r="D19" s="4">
         <v>5.9624318964779377E-4</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" s="3">
+        <v>9.3309999999999997E-4</v>
+      </c>
+      <c r="F19" s="3">
+        <v>3.8739999999999998E-4</v>
+      </c>
+      <c r="G19" s="8">
+        <v>8.3983875811100006E-4</v>
+      </c>
+      <c r="H19" s="8">
+        <v>3.4026330104097724E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
@@ -1066,8 +1312,20 @@
       <c r="D20" s="4">
         <v>6.803901051171124E-4</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" s="3">
+        <v>1.0709999999999999E-3</v>
+      </c>
+      <c r="F20" s="3">
+        <v>4.1810000000000003E-4</v>
+      </c>
+      <c r="G20" s="8">
+        <v>9.6630188636481762E-4</v>
+      </c>
+      <c r="H20" s="8">
+        <v>3.8025449612177908E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
@@ -1080,8 +1338,20 @@
       <c r="D21" s="4">
         <v>7.5602729339152575E-4</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21" s="3">
+        <v>1.1884E-3</v>
+      </c>
+      <c r="F21" s="3">
+        <v>4.3570000000000002E-4</v>
+      </c>
+      <c r="G21" s="8">
+        <v>1.0791078675538301E-3</v>
+      </c>
+      <c r="H21" s="8">
+        <v>4.173456400167197E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
@@ -1094,8 +1364,20 @@
       <c r="D22" s="4">
         <v>8.3210412412881851E-4</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22" s="3">
+        <v>1.3081E-3</v>
+      </c>
+      <c r="F22" s="3">
+        <v>4.526E-4</v>
+      </c>
+      <c r="G22" s="8">
+        <v>1.191966119222343E-3</v>
+      </c>
+      <c r="H22" s="8">
+        <v>4.5554569805972278E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
@@ -1108,8 +1390,20 @@
       <c r="D23" s="4">
         <v>9.1142207384109497E-4</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23" s="3">
+        <v>1.4199E-3</v>
+      </c>
+      <c r="F23" s="3">
+        <v>4.7219999999999999E-4</v>
+      </c>
+      <c r="G23" s="8">
+        <v>1.3084051897749305E-3</v>
+      </c>
+      <c r="H23" s="8">
+        <v>4.9668370047584176E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
@@ -1122,8 +1416,20 @@
       <c r="D24" s="4">
         <v>9.8928064107894897E-4</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24" s="3">
+        <v>1.4882999999999999E-3</v>
+      </c>
+      <c r="F24" s="3">
+        <v>4.8690000000000002E-4</v>
+      </c>
+      <c r="G24" s="8">
+        <v>1.4200003352016211E-3</v>
+      </c>
+      <c r="H24" s="8">
+        <v>5.3957797354087234E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
@@ -1136,8 +1442,20 @@
       <c r="D25" s="4">
         <v>1.0674551595002413E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25" s="3">
+        <v>1.5018E-3</v>
+      </c>
+      <c r="F25" s="3">
+        <v>4.9620000000000003E-4</v>
+      </c>
+      <c r="G25" s="8">
+        <v>1.5284549444913864E-3</v>
+      </c>
+      <c r="H25" s="8">
+        <v>5.8579799951985478E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
@@ -1150,8 +1468,20 @@
       <c r="D26" s="4">
         <v>1.1481443652883172E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26" s="3">
+        <v>1.4741999999999999E-3</v>
+      </c>
+      <c r="F26" s="3">
+        <v>5.0259999999999997E-4</v>
+      </c>
+      <c r="G26" s="8">
+        <v>1.6371486708521843E-3</v>
+      </c>
+      <c r="H26" s="8">
+        <v>6.3642533496022224E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
@@ -1164,8 +1494,20 @@
       <c r="D27" s="4">
         <v>1.2305363779887557E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27" s="3">
+        <v>1.4300999999999999E-3</v>
+      </c>
+      <c r="F27" s="3">
+        <v>5.0869999999999995E-4</v>
+      </c>
+      <c r="G27" s="8">
+        <v>1.7456484492868185E-3</v>
+      </c>
+      <c r="H27" s="8">
+        <v>6.9033174077048898E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
@@ -1178,8 +1520,20 @@
       <c r="D28" s="4">
         <v>1.3160092057660222E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28" s="3">
+        <v>1.3925999999999999E-3</v>
+      </c>
+      <c r="F28" s="3">
+        <v>5.1860000000000003E-4</v>
+      </c>
+      <c r="G28" s="8">
+        <v>1.8569176318123937E-3</v>
+      </c>
+      <c r="H28" s="8">
+        <v>7.4786122422665358E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>30</v>
       </c>
@@ -1192,8 +1546,20 @@
       <c r="D29" s="4">
         <v>1.406351919285953E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29" s="3">
+        <v>1.3661000000000001E-3</v>
+      </c>
+      <c r="F29" s="3">
+        <v>5.3510000000000005E-4</v>
+      </c>
+      <c r="G29" s="8">
+        <v>1.9741591531783342E-3</v>
+      </c>
+      <c r="H29" s="8">
+        <v>8.100794511847198E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>31</v>
       </c>
@@ -1206,8 +1572,20 @@
       <c r="D30" s="4">
         <v>1.4992424985393882E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30" s="3">
+        <v>1.3623999999999999E-3</v>
+      </c>
+      <c r="F30" s="3">
+        <v>5.6079999999999997E-4</v>
+      </c>
+      <c r="G30" s="8">
+        <v>2.0953714847564697E-3</v>
+      </c>
+      <c r="H30" s="8">
+        <v>8.7491964222863317E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>32</v>
       </c>
@@ -1220,8 +1598,20 @@
       <c r="D31" s="4">
         <v>1.5907110646367073E-3</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31" s="3">
+        <v>1.3787000000000001E-3</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5.9489999999999999E-4</v>
+      </c>
+      <c r="G31" s="8">
+        <v>2.2149099968373775E-3</v>
+      </c>
+      <c r="H31" s="8">
+        <v>9.3979871599003673E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>33</v>
       </c>
@@ -1234,8 +1624,20 @@
       <c r="D32" s="4">
         <v>1.6815533163025975E-3</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32" s="3">
+        <v>1.4055000000000001E-3</v>
+      </c>
+      <c r="F32" s="3">
+        <v>6.3699999999999998E-4</v>
+      </c>
+      <c r="G32" s="8">
+        <v>2.3334273137152195E-3</v>
+      </c>
+      <c r="H32" s="8">
+        <v>1.0050979908555746E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>34</v>
       </c>
@@ -1248,8 +1650,20 @@
       <c r="D33" s="4">
         <v>1.7694801790639758E-3</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33" s="3">
+        <v>1.4358999999999999E-3</v>
+      </c>
+      <c r="F33" s="3">
+        <v>6.8420000000000004E-4</v>
+      </c>
+      <c r="G33" s="8">
+        <v>2.4459296837449074E-3</v>
+      </c>
+      <c r="H33" s="8">
+        <v>1.0704006999731064E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>35</v>
       </c>
@@ -1262,8 +1676,20 @@
       <c r="D34" s="4">
         <v>1.8509230576455593E-3</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34" s="3">
+        <v>1.4852000000000001E-3</v>
+      </c>
+      <c r="F34" s="3">
+        <v>7.3800000000000005E-4</v>
+      </c>
+      <c r="G34" s="8">
+        <v>2.5457385927438736E-3</v>
+      </c>
+      <c r="H34" s="8">
+        <v>1.1347612598910928E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>36</v>
       </c>
@@ -1276,8 +1702,20 @@
       <c r="D35" s="4">
         <v>1.9268181640654802E-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35" s="3">
+        <v>1.5164E-3</v>
+      </c>
+      <c r="F35" s="3">
+        <v>7.8529999999999995E-4</v>
+      </c>
+      <c r="G35" s="8">
+        <v>2.6324242353439331E-3</v>
+      </c>
+      <c r="H35" s="8">
+        <v>1.1999929556623101E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>37</v>
       </c>
@@ -1290,8 +1728,20 @@
       <c r="D36" s="4">
         <v>2.0017654169350863E-3</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36" s="3">
+        <v>1.5705999999999999E-3</v>
+      </c>
+      <c r="F36" s="3">
+        <v>8.4110000000000001E-4</v>
+      </c>
+      <c r="G36" s="8">
+        <v>2.7127405628561974E-3</v>
+      </c>
+      <c r="H36" s="8">
+        <v>1.2688371352851391E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>38</v>
       </c>
@@ -1304,8 +1754,20 @@
       <c r="D37" s="4">
         <v>2.0797373726963997E-3</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E37" s="3">
+        <v>1.6345000000000001E-3</v>
+      </c>
+      <c r="F37" s="3">
+        <v>9.0180000000000002E-4</v>
+      </c>
+      <c r="G37" s="8">
+        <v>2.7939043939113617E-3</v>
+      </c>
+      <c r="H37" s="8">
+        <v>1.3426048681139946E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>39</v>
       </c>
@@ -1318,8 +1780,20 @@
       <c r="D38" s="4">
         <v>2.1643158979713917E-3</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38" s="3">
+        <v>1.7213E-3</v>
+      </c>
+      <c r="F38" s="3">
+        <v>9.7499999999999996E-4</v>
+      </c>
+      <c r="G38" s="8">
+        <v>2.8829302173107862E-3</v>
+      </c>
+      <c r="H38" s="8">
+        <v>1.4221019810065627E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>40</v>
       </c>
@@ -1332,8 +1806,20 @@
       <c r="D39" s="4">
         <v>2.2572379093617201E-3</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39" s="3">
+        <v>1.8471E-3</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1.0682999999999999E-3</v>
+      </c>
+      <c r="G39" s="8">
+        <v>2.9826771933585405E-3</v>
+      </c>
+      <c r="H39" s="8">
+        <v>1.508125220425427E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>41</v>
       </c>
@@ -1346,8 +1832,20 @@
       <c r="D40" s="4">
         <v>2.3592254146933556E-3</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E40" s="3">
+        <v>2.0179E-3</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1.1838E-3</v>
+      </c>
+      <c r="G40" s="8">
+        <v>3.0957353301346302E-3</v>
+      </c>
+      <c r="H40" s="8">
+        <v>1.5998573508113623E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>42</v>
       </c>
@@ -1360,8 +1858,20 @@
       <c r="D41" s="4">
         <v>2.4689026176929474E-3</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E41" s="3">
+        <v>2.2217000000000001E-3</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1.3144999999999999E-3</v>
+      </c>
+      <c r="G41" s="8">
+        <v>3.2201777212321758E-3</v>
+      </c>
+      <c r="H41" s="8">
+        <v>1.6962891677394509E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>43</v>
       </c>
@@ -1374,8 +1884,20 @@
       <c r="D42" s="4">
         <v>2.5927049573510885E-3</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E42" s="3">
+        <v>2.4382000000000002E-3</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1.4482E-3</v>
+      </c>
+      <c r="G42" s="8">
+        <v>3.362058661878109E-3</v>
+      </c>
+      <c r="H42" s="8">
+        <v>1.8036314286291599E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>44</v>
       </c>
@@ -1388,8 +1910,20 @@
       <c r="D43" s="4">
         <v>2.7248109690845013E-3</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E43" s="3">
+        <v>2.6603999999999998E-3</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1.5832999999999999E-3</v>
+      </c>
+      <c r="G43" s="8">
+        <v>3.5133082419633865E-3</v>
+      </c>
+      <c r="H43" s="8">
+        <v>1.9180740928277373E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>45</v>
       </c>
@@ -1402,8 +1936,20 @@
       <c r="D44" s="4">
         <v>2.8541490901261568E-3</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E44" s="3">
+        <v>2.8992000000000002E-3</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1.7289E-3</v>
+      </c>
+      <c r="G44" s="8">
+        <v>3.6613361444324255E-3</v>
+      </c>
+      <c r="H44" s="8">
+        <v>2.0304187200963497E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>46</v>
       </c>
@@ -1416,8 +1962,20 @@
       <c r="D45" s="4">
         <v>2.97964783385396E-3</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E45" s="3">
+        <v>3.1587E-3</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1.8892E-3</v>
+      </c>
+      <c r="G45" s="8">
+        <v>3.8045099936425686E-3</v>
+      </c>
+      <c r="H45" s="8">
+        <v>2.1401732228696346E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>47</v>
       </c>
@@ -1430,8 +1988,20 @@
       <c r="D46" s="4">
         <v>3.1129398848861456E-3</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E46" s="3">
+        <v>3.4410999999999999E-3</v>
+      </c>
+      <c r="F46" s="3">
+        <v>2.0639E-3</v>
+      </c>
+      <c r="G46" s="8">
+        <v>3.9570783264935017E-3</v>
+      </c>
+      <c r="H46" s="8">
+        <v>2.2562793456017971E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>48</v>
       </c>
@@ -1444,8 +2014,20 @@
       <c r="D47" s="4">
         <v>3.2710854429751635E-3</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E47" s="3">
+        <v>3.7395000000000002E-3</v>
+      </c>
+      <c r="F47" s="3">
+        <v>2.2518E-3</v>
+      </c>
+      <c r="G47" s="8">
+        <v>4.1396408341825008E-3</v>
+      </c>
+      <c r="H47" s="8">
+        <v>2.3927276488393545E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>49</v>
       </c>
@@ -1458,8 +2040,20 @@
       <c r="D48" s="4">
         <v>3.4662270918488503E-3</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E48" s="3">
+        <v>4.0546999999999996E-3</v>
+      </c>
+      <c r="F48" s="3">
+        <v>2.4459999999999998E-3</v>
+      </c>
+      <c r="G48" s="8">
+        <v>4.3683769181370735E-3</v>
+      </c>
+      <c r="H48" s="8">
+        <v>2.5570911820977926E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>50</v>
       </c>
@@ -1472,8 +2066,20 @@
       <c r="D49" s="4">
         <v>3.6946567706763744E-3</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E49" s="3">
+        <v>4.4013000000000004E-3</v>
+      </c>
+      <c r="F49" s="3">
+        <v>2.6435999999999999E-3</v>
+      </c>
+      <c r="G49" s="8">
+        <v>4.6404260210692883E-3</v>
+      </c>
+      <c r="H49" s="8">
+        <v>2.743482356891036E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>51</v>
       </c>
@@ -1486,8 +2092,20 @@
       <c r="D50" s="4">
         <v>3.949933685362339E-3</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E50" s="3">
+        <v>4.7881E-3</v>
+      </c>
+      <c r="F50" s="3">
+        <v>2.8438999999999999E-3</v>
+      </c>
+      <c r="G50" s="8">
+        <v>4.9483818002045155E-3</v>
+      </c>
+      <c r="H50" s="8">
+        <v>2.9455618932843208E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>52</v>
       </c>
@@ -1500,8 +2118,20 @@
       <c r="D51" s="4">
         <v>4.2257155291736126E-3</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E51" s="3">
+        <v>5.2147000000000001E-3</v>
+      </c>
+      <c r="F51" s="3">
+        <v>3.0525999999999999E-3</v>
+      </c>
+      <c r="G51" s="8">
+        <v>5.2830912172794342E-3</v>
+      </c>
+      <c r="H51" s="8">
+        <v>3.160352585837245E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>53</v>
       </c>
@@ -1514,8 +2144,20 @@
       <c r="D52" s="4">
         <v>4.5147612690925598E-3</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E52" s="3">
+        <v>5.6877000000000004E-3</v>
+      </c>
+      <c r="F52" s="3">
+        <v>3.2810000000000001E-3</v>
+      </c>
+      <c r="G52" s="8">
+        <v>5.6323092430830002E-3</v>
+      </c>
+      <c r="H52" s="8">
+        <v>3.3863710705190897E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>54</v>
       </c>
@@ -1528,8 +2170,20 @@
       <c r="D53" s="4">
         <v>4.8330896534025669E-3</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E53" s="3">
+        <v>6.1896E-3</v>
+      </c>
+      <c r="F53" s="3">
+        <v>3.5339E-3</v>
+      </c>
+      <c r="G53" s="8">
+        <v>6.0164406895637512E-3</v>
+      </c>
+      <c r="H53" s="8">
+        <v>3.6369417794048786E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>55</v>
       </c>
@@ -1542,8 +2196,20 @@
       <c r="D54" s="4">
         <v>5.2038128487765789E-3</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E54" s="3">
+        <v>6.6885E-3</v>
+      </c>
+      <c r="F54" s="3">
+        <v>3.8057999999999998E-3</v>
+      </c>
+      <c r="G54" s="8">
+        <v>6.467906292527914E-3</v>
+      </c>
+      <c r="H54" s="8">
+        <v>3.9272988215088844E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>56</v>
       </c>
@@ -1556,8 +2222,20 @@
       <c r="D55" s="4">
         <v>5.6472192518413067E-3</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E55" s="3">
+        <v>7.1567999999999996E-3</v>
+      </c>
+      <c r="F55" s="3">
+        <v>4.0929E-3</v>
+      </c>
+      <c r="G55" s="8">
+        <v>7.0142694748938084E-3</v>
+      </c>
+      <c r="H55" s="8">
+        <v>4.2719966731965542E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>57</v>
       </c>
@@ -1570,8 +2248,20 @@
       <c r="D56" s="4">
         <v>6.1621745117008686E-3</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E56" s="3">
+        <v>7.6046000000000004E-3</v>
+      </c>
+      <c r="F56" s="3">
+        <v>4.3966999999999999E-3</v>
+      </c>
+      <c r="G56" s="8">
+        <v>7.6541807502508163E-3</v>
+      </c>
+      <c r="H56" s="8">
+        <v>4.6702027320861816E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>58</v>
       </c>
@@ -1584,8 +2274,20 @@
       <c r="D57" s="4">
         <v>6.7089321091771126E-3</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E57" s="3">
+        <v>8.0567999999999994E-3</v>
+      </c>
+      <c r="F57" s="3">
+        <v>4.7165999999999996E-3</v>
+      </c>
+      <c r="G57" s="8">
+        <v>8.336617611348629E-3</v>
+      </c>
+      <c r="H57" s="8">
+        <v>5.0924285314977169E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>59</v>
       </c>
@@ -1598,8 +2300,20 @@
       <c r="D58" s="4">
         <v>7.2853327728807926E-3</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E58" s="3">
+        <v>8.5579999999999996E-3</v>
+      </c>
+      <c r="F58" s="3">
+        <v>5.0688E-3</v>
+      </c>
+      <c r="G58" s="8">
+        <v>9.0551720932126045E-3</v>
+      </c>
+      <c r="H58" s="8">
+        <v>5.5392058566212654E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>60</v>
       </c>
@@ -1612,8 +2326,20 @@
       <c r="D59" s="4">
         <v>7.9303709790110588E-3</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E59" s="3">
+        <v>9.1438000000000005E-3</v>
+      </c>
+      <c r="F59" s="3">
+        <v>5.4796999999999997E-3</v>
+      </c>
+      <c r="G59" s="8">
+        <v>9.8570669069886208E-3</v>
+      </c>
+      <c r="H59" s="8">
+        <v>6.0413028113543987E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>61</v>
       </c>
@@ -1626,8 +2352,20 @@
       <c r="D60" s="4">
         <v>8.6412737146019936E-3</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E60" s="3">
+        <v>9.8685000000000005E-3</v>
+      </c>
+      <c r="F60" s="3">
+        <v>5.9798000000000004E-3</v>
+      </c>
+      <c r="G60" s="8">
+        <v>1.0736281052231789E-2</v>
+      </c>
+      <c r="H60" s="8">
+        <v>6.5980921499431133E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>62</v>
       </c>
@@ -1640,8 +2378,20 @@
       <c r="D61" s="4">
         <v>9.3922168016433716E-3</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E61" s="3">
+        <v>1.0749699999999999E-2</v>
+      </c>
+      <c r="F61" s="3">
+        <v>6.5811000000000003E-3</v>
+      </c>
+      <c r="G61" s="8">
+        <v>1.1661052703857422E-2</v>
+      </c>
+      <c r="H61" s="8">
+        <v>7.1898740716278553E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>63</v>
       </c>
@@ -1654,8 +2404,20 @@
       <c r="D62" s="4">
         <v>1.017276756465435E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E62" s="3">
+        <v>1.18076E-2</v>
+      </c>
+      <c r="F62" s="3">
+        <v>7.3049999999999999E-3</v>
+      </c>
+      <c r="G62" s="8">
+        <v>1.2616168707609177E-2</v>
+      </c>
+      <c r="H62" s="8">
+        <v>7.8116348013281822E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>64</v>
       </c>
@@ -1668,8 +2430,20 @@
       <c r="D63" s="4">
         <v>1.0960295796394348E-2</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E63" s="3">
+        <v>1.2984300000000001E-2</v>
+      </c>
+      <c r="F63" s="3">
+        <v>8.1162000000000005E-3</v>
+      </c>
+      <c r="G63" s="8">
+        <v>1.3579309917986393E-2</v>
+      </c>
+      <c r="H63" s="8">
+        <v>8.4422808140516281E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>65</v>
       </c>
@@ -1682,8 +2456,20 @@
       <c r="D64" s="4">
         <v>1.1741255410015583E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E64" s="3">
+        <v>1.41967E-2</v>
+      </c>
+      <c r="F64" s="3">
+        <v>8.9536000000000008E-3</v>
+      </c>
+      <c r="G64" s="8">
+        <v>1.4541718177497387E-2</v>
+      </c>
+      <c r="H64" s="8">
+        <v>9.0652415528893471E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>66</v>
       </c>
@@ -1696,8 +2482,20 @@
       <c r="D65" s="4">
         <v>1.2523766607046127E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E65" s="3">
+        <v>1.53381E-2</v>
+      </c>
+      <c r="F65" s="3">
+        <v>9.7512999999999992E-3</v>
+      </c>
+      <c r="G65" s="8">
+        <v>1.5518367290496826E-2</v>
+      </c>
+      <c r="H65" s="8">
+        <v>9.684290736913681E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>67</v>
       </c>
@@ -1710,8 +2508,20 @@
       <c r="D66" s="4">
         <v>1.3340290635824203E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E66" s="3">
+        <v>1.6425100000000002E-2</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1.0525400000000001E-2</v>
+      </c>
+      <c r="G66" s="8">
+        <v>1.6544744372367859E-2</v>
+      </c>
+      <c r="H66" s="8">
+        <v>1.032949797809124E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>68</v>
       </c>
@@ -1724,8 +2534,20 @@
       <c r="D67" s="4">
         <v>1.4218278229236603E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E67" s="3">
+        <v>1.7574200000000002E-2</v>
+      </c>
+      <c r="F67" s="3">
+        <v>1.1373400000000001E-2</v>
+      </c>
+      <c r="G67" s="8">
+        <v>1.7652425915002823E-2</v>
+      </c>
+      <c r="H67" s="8">
+        <v>1.1023567058146E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>69</v>
       </c>
@@ -1738,8 +2560,20 @@
       <c r="D68" s="4">
         <v>1.5279612503945827E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E68" s="3">
+        <v>1.8825000000000001E-2</v>
+      </c>
+      <c r="F68" s="3">
+        <v>1.2244100000000001E-2</v>
+      </c>
+      <c r="G68" s="8">
+        <v>1.8999021500349045E-2</v>
+      </c>
+      <c r="H68" s="8">
+        <v>1.1864908039569855E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>70</v>
       </c>
@@ -1752,8 +2586,20 @@
       <c r="D69" s="4">
         <v>1.6329443082213402E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E69" s="3">
+        <v>2.0359200000000001E-2</v>
+      </c>
+      <c r="F69" s="3">
+        <v>1.3271399999999999E-2</v>
+      </c>
+      <c r="G69" s="8">
+        <v>2.0295474678277969E-2</v>
+      </c>
+      <c r="H69" s="8">
+        <v>1.2724832631647587E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>71</v>
       </c>
@@ -1766,8 +2612,20 @@
       <c r="D70" s="4">
         <v>1.7523877322673798E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E70" s="3">
+        <v>2.2200000000000001E-2</v>
+      </c>
+      <c r="F70" s="3">
+        <v>1.4473400000000001E-2</v>
+      </c>
+      <c r="G70" s="8">
+        <v>2.1721566095948219E-2</v>
+      </c>
+      <c r="H70" s="8">
+        <v>1.374815683811903E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>72</v>
       </c>
@@ -1780,8 +2638,20 @@
       <c r="D71" s="4">
         <v>1.8824143335223198E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E71" s="3">
+        <v>2.43454E-2</v>
+      </c>
+      <c r="F71" s="3">
+        <v>1.5858899999999999E-2</v>
+      </c>
+      <c r="G71" s="8">
+        <v>2.3220205679535866E-2</v>
+      </c>
+      <c r="H71" s="8">
+        <v>1.490480825304985E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>73</v>
       </c>
@@ -1794,8 +2664,20 @@
       <c r="D72" s="4">
         <v>2.0178917795419693E-2</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E72" s="3">
+        <v>2.6723899999999998E-2</v>
+      </c>
+      <c r="F72" s="3">
+        <v>1.7426899999999999E-2</v>
+      </c>
+      <c r="G72" s="8">
+        <v>2.4717949330806732E-2</v>
+      </c>
+      <c r="H72" s="8">
+        <v>1.6151361167430878E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>74</v>
       </c>
@@ -1808,8 +2690,20 @@
       <c r="D73" s="4">
         <v>2.1711178123950958E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E73" s="3">
+        <v>2.9349400000000001E-2</v>
+      </c>
+      <c r="F73" s="3">
+        <v>1.92249E-2</v>
+      </c>
+      <c r="G73" s="8">
+        <v>2.652646042406559E-2</v>
+      </c>
+      <c r="H73" s="8">
+        <v>1.7479315400123596E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>75</v>
       </c>
@@ -1822,8 +2716,20 @@
       <c r="D74" s="4">
         <v>2.3520652204751968E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E74" s="3">
+        <v>3.2288699999999997E-2</v>
+      </c>
+      <c r="F74" s="3">
+        <v>2.1306700000000001E-2</v>
+      </c>
+      <c r="G74" s="8">
+        <v>2.854766882956028E-2</v>
+      </c>
+      <c r="H74" s="8">
+        <v>1.9142733886837959E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>76</v>
       </c>
@@ -1836,8 +2742,20 @@
       <c r="D75" s="4">
         <v>2.5617793202400208E-2</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E75" s="3">
+        <v>3.5604200000000003E-2</v>
+      </c>
+      <c r="F75" s="3">
+        <v>2.3699399999999999E-2</v>
+      </c>
+      <c r="G75" s="8">
+        <v>3.0912987887859344E-2</v>
+      </c>
+      <c r="H75" s="8">
+        <v>2.1044796332716942E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>77</v>
       </c>
@@ -1850,8 +2768,20 @@
       <c r="D76" s="4">
         <v>2.8122082352638245E-2</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E76" s="3">
+        <v>3.93132E-2</v>
+      </c>
+      <c r="F76" s="3">
+        <v>2.64263E-2</v>
+      </c>
+      <c r="G76" s="8">
+        <v>3.368469700217247E-2</v>
+      </c>
+      <c r="H76" s="8">
+        <v>2.3346072062849998E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>78</v>
       </c>
@@ -1864,8 +2794,20 @@
       <c r="D77" s="4">
         <v>3.0466774478554726E-2</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E77" s="3">
+        <v>4.3446100000000001E-2</v>
+      </c>
+      <c r="F77" s="3">
+        <v>2.95337E-2</v>
+      </c>
+      <c r="G77" s="8">
+        <v>3.6360442638397217E-2</v>
+      </c>
+      <c r="H77" s="8">
+        <v>2.5436067953705788E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>79</v>
       </c>
@@ -1878,8 +2820,20 @@
       <c r="D78" s="4">
         <v>3.4339193254709244E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E78" s="3">
+        <v>4.7909500000000001E-2</v>
+      </c>
+      <c r="F78" s="3">
+        <v>3.2895599999999997E-2</v>
+      </c>
+      <c r="G78" s="8">
+        <v>4.0717855095863342E-2</v>
+      </c>
+      <c r="H78" s="8">
+        <v>2.895035408437252E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>80</v>
       </c>
@@ -1892,8 +2846,20 @@
       <c r="D79" s="4">
         <v>3.7380039691925049E-2</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E79" s="3">
+        <v>5.2805999999999999E-2</v>
+      </c>
+      <c r="F79" s="3">
+        <v>3.6625699999999997E-2</v>
+      </c>
+      <c r="G79" s="8">
+        <v>4.411991685628891E-2</v>
+      </c>
+      <c r="H79" s="8">
+        <v>3.1753603368997574E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>81</v>
       </c>
@@ -1906,8 +2872,20 @@
       <c r="D80" s="4">
         <v>4.1499711573123932E-2</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E80" s="3">
+        <v>5.8172399999999999E-2</v>
+      </c>
+      <c r="F80" s="3">
+        <v>4.0760999999999999E-2</v>
+      </c>
+      <c r="G80" s="8">
+        <v>4.8910319805145264E-2</v>
+      </c>
+      <c r="H80" s="8">
+        <v>3.5411760210990906E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>82</v>
       </c>
@@ -1920,8 +2898,20 @@
       <c r="D81" s="4">
         <v>4.5247048139572144E-2</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E81" s="3">
+        <v>6.4047300000000001E-2</v>
+      </c>
+      <c r="F81" s="3">
+        <v>4.5341199999999998E-2</v>
+      </c>
+      <c r="G81" s="8">
+        <v>5.325748398900032E-2</v>
+      </c>
+      <c r="H81" s="8">
+        <v>3.8773540407419205E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>83</v>
       </c>
@@ -1934,8 +2924,20 @@
       <c r="D82" s="4">
         <v>5.0833046436309814E-2</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E82" s="3">
+        <v>7.0471199999999998E-2</v>
+      </c>
+      <c r="F82" s="3">
+        <v>5.04089E-2</v>
+      </c>
+      <c r="G82" s="8">
+        <v>5.9834126383066177E-2</v>
+      </c>
+      <c r="H82" s="8">
+        <v>4.3717596679925919E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>84</v>
       </c>
@@ -1948,8 +2950,20 @@
       <c r="D83" s="4">
         <v>5.6254032999277115E-2</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E83" s="3">
+        <v>7.7485899999999996E-2</v>
+      </c>
+      <c r="F83" s="3">
+        <v>5.6009900000000001E-2</v>
+      </c>
+      <c r="G83" s="8">
+        <v>6.6213175654411316E-2</v>
+      </c>
+      <c r="H83" s="8">
+        <v>4.8564467579126358E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>85</v>
       </c>
@@ -1962,8 +2976,20 @@
       <c r="D84" s="4">
         <v>6.2470700591802597E-2</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E84" s="3">
+        <v>8.5135000000000002E-2</v>
+      </c>
+      <c r="F84" s="3">
+        <v>6.2192499999999998E-2</v>
+      </c>
+      <c r="G84" s="8">
+        <v>7.3590032756328583E-2</v>
+      </c>
+      <c r="H84" s="8">
+        <v>5.4103657603263855E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>86</v>
       </c>
@@ -1976,8 +3002,20 @@
       <c r="D85" s="4">
         <v>6.9525532424449921E-2</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E85" s="3">
+        <v>9.3462699999999996E-2</v>
+      </c>
+      <c r="F85" s="3">
+        <v>6.9007600000000002E-2</v>
+      </c>
+      <c r="G85" s="8">
+        <v>8.1530854105949402E-2</v>
+      </c>
+      <c r="H85" s="8">
+        <v>6.0688521713018417E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>87</v>
       </c>
@@ -1990,8 +3028,20 @@
       <c r="D86" s="4">
         <v>7.6868720352649689E-2</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E86" s="3">
+        <v>0.1025137</v>
+      </c>
+      <c r="F86" s="3">
+        <v>7.6508599999999996E-2</v>
+      </c>
+      <c r="G86" s="8">
+        <v>8.9758247137069702E-2</v>
+      </c>
+      <c r="H86" s="8">
+        <v>6.7641675472259521E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>88</v>
       </c>
@@ -2004,8 +3054,20 @@
       <c r="D87" s="4">
         <v>8.6053855717182159E-2</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E87" s="3">
+        <v>0.1123326</v>
+      </c>
+      <c r="F87" s="3">
+        <v>8.4750800000000001E-2</v>
+      </c>
+      <c r="G87" s="8">
+        <v>0.10021603107452393</v>
+      </c>
+      <c r="H87" s="8">
+        <v>7.6212316751480103E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>89</v>
       </c>
@@ -2018,8 +3080,20 @@
       <c r="D88" s="4">
         <v>9.4544515013694763E-2</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E88" s="3">
+        <v>0.12296310000000001</v>
+      </c>
+      <c r="F88" s="3">
+        <v>9.3790600000000002E-2</v>
+      </c>
+      <c r="G88" s="8">
+        <v>0.1106090247631073</v>
+      </c>
+      <c r="H88" s="8">
+        <v>8.3732925355434418E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>90</v>
       </c>
@@ -2032,8 +3106,20 @@
       <c r="D89" s="4">
         <v>0.10619527846574783</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E89" s="3">
+        <v>0.13444719999999999</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0.1036855</v>
+      </c>
+      <c r="G89" s="8">
+        <v>0.12395221740007401</v>
+      </c>
+      <c r="H89" s="8">
+        <v>9.4759270548820496E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>91</v>
       </c>
@@ -2046,8 +3132,20 @@
       <c r="D90" s="4">
         <v>0.11898317933082581</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E90" s="3">
+        <v>0.14682439999999999</v>
+      </c>
+      <c r="F90" s="3">
+        <v>0.11449239999999999</v>
+      </c>
+      <c r="G90" s="8">
+        <v>0.13850413262844086</v>
+      </c>
+      <c r="H90" s="8">
+        <v>0.10697116702795029</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>92</v>
       </c>
@@ -2060,8 +3158,20 @@
       <c r="D91" s="4">
         <v>0.132945716381073</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E91" s="3">
+        <v>0.1601301</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0.12626689999999999</v>
+      </c>
+      <c r="G91" s="8">
+        <v>0.15427877008914948</v>
+      </c>
+      <c r="H91" s="8">
+        <v>0.12042546272277832</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>93</v>
       </c>
@@ -2074,8 +3184,20 @@
       <c r="D92" s="4">
         <v>0.14810365438461304</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E92" s="3">
+        <v>0.1743952</v>
+      </c>
+      <c r="F92" s="3">
+        <v>0.1390622</v>
+      </c>
+      <c r="G92" s="8">
+        <v>0.17126743495464325</v>
+      </c>
+      <c r="H92" s="8">
+        <v>0.13516330718994141</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>94</v>
       </c>
@@ -2088,8 +3210,20 @@
       <c r="D93" s="4">
         <v>0.16445732116699219</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E93" s="3">
+        <v>0.18964420000000001</v>
+      </c>
+      <c r="F93" s="3">
+        <v>0.15292720000000001</v>
+      </c>
+      <c r="G93" s="8">
+        <v>0.1894351989030838</v>
+      </c>
+      <c r="H93" s="8">
+        <v>0.15120552480220795</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>95</v>
       </c>
@@ -2102,8 +3236,20 @@
       <c r="D94" s="4">
         <v>0.18198303878307343</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E94" s="3">
+        <v>0.20589399999999999</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0.167905</v>
+      </c>
+      <c r="G94" s="8">
+        <v>0.20871824026107788</v>
+      </c>
+      <c r="H94" s="8">
+        <v>0.16854795813560486</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>96</v>
       </c>
@@ -2116,8 +3262,20 @@
       <c r="D95" s="4">
         <v>0.2006303071975708</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E95" s="3">
+        <v>0.22315270000000001</v>
+      </c>
+      <c r="F95" s="3">
+        <v>0.184031</v>
+      </c>
+      <c r="G95" s="8">
+        <v>0.22902213037014008</v>
+      </c>
+      <c r="H95" s="8">
+        <v>0.1871572881937027</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>97</v>
       </c>
@@ -2130,8 +3288,20 @@
       <c r="D96" s="4">
         <v>0.22031974792480469</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E96" s="3">
+        <v>0.24141840000000001</v>
+      </c>
+      <c r="F96" s="3">
+        <v>0.20133110000000001</v>
+      </c>
+      <c r="G96" s="8">
+        <v>0.25022199749946594</v>
+      </c>
+      <c r="H96" s="8">
+        <v>0.2069675475358963</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>98</v>
       </c>
@@ -2144,8 +3314,20 @@
       <c r="D97" s="4">
         <v>0.24094247817993164</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E97" s="3">
+        <v>0.2606774</v>
+      </c>
+      <c r="F97" s="3">
+        <v>0.2198193</v>
+      </c>
+      <c r="G97" s="8">
+        <v>0.27216383814811707</v>
+      </c>
+      <c r="H97" s="8">
+        <v>0.22787818312644958</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>99</v>
       </c>
@@ -2158,8 +3340,20 @@
       <c r="D98" s="4">
         <v>0.26236090064048767</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E98" s="3">
+        <v>0.28090379999999998</v>
+      </c>
+      <c r="F98" s="3">
+        <v>0.2394963</v>
+      </c>
+      <c r="G98" s="8">
+        <v>0.29466834664344788</v>
+      </c>
+      <c r="H98" s="8">
+        <v>0.24975365400314331</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>100</v>
       </c>
@@ -2172,8 +3366,20 @@
       <c r="D99" s="4">
         <v>0.28441134095191956</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E99" s="3">
+        <v>0.30205850000000001</v>
+      </c>
+      <c r="F99" s="3">
+        <v>0.26034679999999999</v>
+      </c>
+      <c r="G99" s="8">
+        <v>0.3175358772277832</v>
+      </c>
+      <c r="H99" s="8">
+        <v>0.27242535352706909</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>101</v>
       </c>
@@ -2186,8 +3392,20 @@
       <c r="D100" s="4">
         <v>0.3069082498550415</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E100" s="3">
+        <v>0.3240884</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0.2823386</v>
+      </c>
+      <c r="G100" s="8">
+        <v>0.34055343270301819</v>
+      </c>
+      <c r="H100" s="8">
+        <v>0.29569539427757263</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>102</v>
       </c>
@@ -2200,8 +3418,20 @@
       <c r="D101" s="4">
         <v>0.32965001463890076</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E101" s="3">
+        <v>0.34692620000000002</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0.305421</v>
+      </c>
+      <c r="G101" s="8">
+        <v>0.36350229382514954</v>
+      </c>
+      <c r="H101" s="8">
+        <v>0.31934309005737305</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
         <v>103</v>
       </c>
@@ -2212,6 +3442,18 @@
         <v>1</v>
       </c>
       <c r="D102" s="7">
+        <v>1</v>
+      </c>
+      <c r="E102" s="6">
+        <v>1</v>
+      </c>
+      <c r="F102" s="6">
+        <v>1</v>
+      </c>
+      <c r="G102" s="9">
+        <v>1</v>
+      </c>
+      <c r="H102" s="9">
         <v>1</v>
       </c>
     </row>
